--- a/stock-unique-dummy.xlsx
+++ b/stock-unique-dummy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="142">
   <si>
     <t>id</t>
   </si>
@@ -430,6 +430,21 @@
   </si>
   <si>
     <t>Industry</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Vedanta</t>
+  </si>
+  <si>
+    <t>299.90k</t>
+  </si>
+  <si>
+    <t>http://www.moneycontrol.com/india/stockpricequote/mining-minerals/vedanta/SG</t>
+  </si>
+  <si>
+    <t>mining-minerals</t>
   </si>
 </sst>
 </file>
@@ -1222,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1223"/>
+  <dimension ref="A1:K1222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2249,17 +2264,50 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="1"/>
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="1">
+        <v>58731.71</v>
+      </c>
+      <c r="D30">
+        <v>158</v>
+      </c>
+      <c r="E30">
+        <v>0.6</v>
+      </c>
+      <c r="F30">
+        <v>0.38</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="1"/>
@@ -2267,7 +2315,6 @@
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1"/>
@@ -2286,6 +2333,7 @@
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="1"/>
@@ -2301,17 +2349,16 @@
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="1"/>
@@ -2321,10 +2368,10 @@
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="1"/>
@@ -2337,6 +2384,7 @@
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1"/>
@@ -2344,7 +2392,6 @@
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1"/>
@@ -2360,13 +2407,14 @@
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" s="1"/>
@@ -2374,7 +2422,6 @@
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" s="1"/>
@@ -2387,6 +2434,7 @@
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" s="1"/>
@@ -2394,7 +2442,6 @@
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" s="1"/>
@@ -2405,12 +2452,12 @@
     <row r="76" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C77" s="1"/>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C80" s="1"/>
@@ -2420,6 +2467,7 @@
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C83" s="1"/>
@@ -2431,7 +2479,6 @@
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" s="1"/>
@@ -2450,20 +2497,21 @@
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C96" s="1"/>
@@ -2471,7 +2519,6 @@
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1"/>
@@ -2490,17 +2537,17 @@
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C107" s="1"/>
@@ -2516,6 +2563,7 @@
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C112" s="1"/>
@@ -2527,20 +2575,20 @@
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C119" s="1"/>
@@ -2548,7 +2596,6 @@
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C121" s="1"/>
@@ -2558,6 +2605,7 @@
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C124" s="1"/>
@@ -2565,7 +2613,6 @@
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C126" s="1"/>
@@ -2593,10 +2640,10 @@
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C136" s="1"/>
@@ -2606,6 +2653,7 @@
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C139" s="1"/>
@@ -2617,7 +2665,6 @@
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C142" s="1"/>
@@ -2636,20 +2683,21 @@
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C152" s="1"/>
@@ -2657,7 +2705,6 @@
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C154" s="1"/>
@@ -2676,6 +2723,7 @@
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C160" s="1"/>
@@ -2683,17 +2731,16 @@
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C162" s="1"/>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C165" s="1"/>
@@ -2703,6 +2750,7 @@
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C168" s="1"/>
@@ -2710,7 +2758,6 @@
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C170" s="1"/>
@@ -2747,6 +2794,7 @@
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C182" s="1"/>
@@ -2766,7 +2814,6 @@
     </row>
     <row r="186" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
     </row>
     <row r="187" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C187" s="1"/>
@@ -2785,20 +2832,21 @@
     </row>
     <row r="192" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
     </row>
     <row r="193" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
     </row>
     <row r="194" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
     </row>
     <row r="195" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
     </row>
     <row r="196" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
     </row>
     <row r="197" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C197" s="1"/>
@@ -2806,7 +2854,6 @@
     </row>
     <row r="198" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
     </row>
     <row r="199" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C199" s="1"/>
@@ -2822,14 +2869,14 @@
     </row>
     <row r="203" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
     </row>
     <row r="206" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
     </row>
     <row r="207" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C207" s="1"/>
@@ -2851,10 +2898,10 @@
     </row>
     <row r="213" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
     </row>
     <row r="214" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
     </row>
     <row r="215" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C215" s="1"/>
@@ -2874,11 +2921,11 @@
     <row r="220" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C221" s="1"/>
-    </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C224" s="1"/>
+    <row r="223" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C223" s="1"/>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C225" s="1"/>
     </row>
     <row r="226" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C226" s="1"/>
@@ -2897,10 +2944,10 @@
     </row>
     <row r="231" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
     </row>
     <row r="232" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
     </row>
     <row r="233" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C233" s="1"/>
@@ -2908,36 +2955,36 @@
     <row r="234" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C235" s="1"/>
-    </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C243" s="1"/>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C242" s="1"/>
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
     </row>
     <row r="245" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
     </row>
     <row r="246" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C247" s="1"/>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C248" s="1"/>
     </row>
     <row r="249" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C250" s="1"/>
-    </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C252" s="1"/>
+    <row r="251" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C251" s="1"/>
+    </row>
+    <row r="254" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C254" s="1"/>
     </row>
     <row r="255" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C256" s="1"/>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C257" s="1"/>
     </row>
     <row r="258" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C258" s="1"/>
@@ -2953,6 +3000,7 @@
     </row>
     <row r="262" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
     </row>
     <row r="263" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C263" s="1"/>
@@ -2960,13 +3008,12 @@
     </row>
     <row r="264" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-    </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C265" s="1"/>
-    </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C267" s="1"/>
+    </row>
+    <row r="266" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C266" s="1"/>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C268" s="1"/>
     </row>
     <row r="269" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C269" s="1"/>
@@ -2974,24 +3021,25 @@
     <row r="270" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C271" s="1"/>
+    <row r="274" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
     </row>
     <row r="275" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-    </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C276" s="1"/>
-    </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C279" s="1"/>
-    </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C281" s="1"/>
+    </row>
+    <row r="278" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C278" s="1"/>
+    </row>
+    <row r="280" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C280" s="1"/>
+    </row>
+    <row r="283" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C283" s="1"/>
     </row>
     <row r="284" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
     </row>
     <row r="285" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C285" s="1"/>
@@ -2999,42 +3047,41 @@
     </row>
     <row r="286" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
     </row>
     <row r="287" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C287" s="1"/>
     </row>
     <row r="288" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
     </row>
     <row r="289" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
-    </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C290" s="1"/>
-    </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C292" s="1"/>
-    </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C294" s="1"/>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C291" s="1"/>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C293" s="1"/>
+    </row>
+    <row r="295" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
     </row>
     <row r="296" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
-    </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C297" s="1"/>
-    </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C301" s="1"/>
+    </row>
+    <row r="300" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C300" s="1"/>
+    </row>
+    <row r="302" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C302" s="1"/>
     </row>
     <row r="303" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C304" s="1"/>
+    <row r="305" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C305" s="1"/>
     </row>
     <row r="306" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C306" s="1"/>
@@ -3042,18 +3089,18 @@
     <row r="307" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C308" s="1"/>
+    <row r="310" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C310" s="1"/>
     </row>
     <row r="311" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
     </row>
     <row r="312" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
-    </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C313" s="1"/>
+    </row>
+    <row r="314" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C314" s="1"/>
     </row>
     <row r="315" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C315" s="1"/>
@@ -3076,17 +3123,17 @@
     <row r="321" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C322" s="1"/>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C325" s="1"/>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C324" s="1"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C327" s="1"/>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C329" s="1"/>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C330" s="1"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C331" s="1"/>
@@ -3094,80 +3141,80 @@
     <row r="332" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C333" s="1"/>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C336" s="1"/>
     </row>
     <row r="337" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C337" s="1"/>
-    </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-    </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C340" s="1"/>
-    </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C342" s="1"/>
+      <c r="D337" s="1"/>
+    </row>
+    <row r="339" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C339" s="1"/>
+    </row>
+    <row r="341" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C341" s="1"/>
+    </row>
+    <row r="352" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C352" s="1"/>
     </row>
     <row r="353" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C353" s="1"/>
     </row>
     <row r="354" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C354" s="1"/>
-    </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C355" s="1"/>
-      <c r="D355" s="1"/>
-    </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C360" s="1"/>
+      <c r="D354" s="1"/>
+    </row>
+    <row r="359" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C359" s="1"/>
+    </row>
+    <row r="361" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C361" s="1"/>
     </row>
     <row r="362" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C362" s="1"/>
-    </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C363" s="1"/>
-      <c r="D363" s="1"/>
-    </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C365" s="1"/>
-    </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C367" s="1"/>
-    </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C369" s="1"/>
+      <c r="D362" s="1"/>
+    </row>
+    <row r="364" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C364" s="1"/>
+    </row>
+    <row r="366" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C366" s="1"/>
+    </row>
+    <row r="368" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C368" s="1"/>
+    </row>
+    <row r="371" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
     </row>
     <row r="372" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C372" s="1"/>
-      <c r="D372" s="1"/>
-    </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C373" s="1"/>
-    </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C376" s="1"/>
-      <c r="D376" s="1"/>
+    </row>
+    <row r="375" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+    </row>
+    <row r="378" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C378" s="1"/>
     </row>
     <row r="379" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C380" s="1"/>
-    </row>
-    <row r="382" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C382" s="1"/>
+    <row r="381" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C381" s="1"/>
+    </row>
+    <row r="383" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
     </row>
     <row r="384" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C384" s="1"/>
-      <c r="D384" s="1"/>
     </row>
     <row r="385" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C386" s="1"/>
+    <row r="387" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C387" s="1"/>
     </row>
     <row r="388" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C388" s="1"/>
@@ -3184,21 +3231,21 @@
     <row r="392" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C393" s="1"/>
+    <row r="394" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C394" s="1"/>
     </row>
     <row r="395" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C396" s="1"/>
+    <row r="397" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C397" s="1"/>
     </row>
     <row r="398" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
     </row>
     <row r="399" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C399" s="1"/>
-      <c r="D399" s="1"/>
     </row>
     <row r="400" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C400" s="1"/>
@@ -3211,10 +3258,10 @@
     </row>
     <row r="403" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
     </row>
     <row r="404" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C404" s="1"/>
-      <c r="D404" s="1"/>
     </row>
     <row r="405" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C405" s="1"/>
@@ -3230,16 +3277,17 @@
     </row>
     <row r="409" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
     </row>
     <row r="410" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
     </row>
     <row r="411" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C411" s="1"/>
     </row>
     <row r="412" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
     </row>
     <row r="413" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C413" s="1"/>
@@ -3247,7 +3295,6 @@
     </row>
     <row r="414" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C414" s="1"/>
-      <c r="D414" s="1"/>
     </row>
     <row r="415" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C415" s="1"/>
@@ -3272,10 +3319,10 @@
     </row>
     <row r="422" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
     </row>
     <row r="423" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C423" s="1"/>
-      <c r="D423" s="1"/>
     </row>
     <row r="424" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C424" s="1"/>
@@ -3297,56 +3344,57 @@
     </row>
     <row r="430" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
     </row>
     <row r="431" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C431" s="1"/>
-      <c r="D431" s="1"/>
     </row>
     <row r="432" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C432" s="1"/>
-    </row>
-    <row r="433" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D432" s="1"/>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C433" s="1"/>
-      <c r="D433" s="1"/>
-    </row>
-    <row r="434" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C436" s="1"/>
-    </row>
-    <row r="438" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C438" s="1"/>
-    </row>
-    <row r="440" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C437" s="1"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C439" s="1"/>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C446" s="1"/>
-    </row>
-    <row r="448" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C447" s="1"/>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C448" s="1"/>
     </row>
     <row r="449" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C449" s="1"/>
+      <c r="D449" s="1"/>
     </row>
     <row r="450" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C450" s="1"/>
@@ -3354,7 +3402,6 @@
     </row>
     <row r="451" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C451" s="1"/>
-      <c r="D451" s="1"/>
     </row>
     <row r="452" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C452" s="1"/>
@@ -3367,10 +3414,10 @@
     </row>
     <row r="455" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
     </row>
     <row r="456" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C456" s="1"/>
-      <c r="D456" s="1"/>
     </row>
     <row r="457" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C457" s="1"/>
@@ -3383,10 +3430,10 @@
     </row>
     <row r="460" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C460" s="1"/>
-    </row>
-    <row r="461" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C461" s="1"/>
-      <c r="D461" s="1"/>
+      <c r="D460" s="1"/>
+    </row>
+    <row r="462" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C462" s="1"/>
     </row>
     <row r="463" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C463" s="1"/>
@@ -3394,57 +3441,57 @@
     <row r="464" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C480" s="1"/>
+      <c r="D480" s="1"/>
     </row>
     <row r="481" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C481" s="1"/>
-      <c r="D481" s="1"/>
     </row>
     <row r="482" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C482" s="1"/>
@@ -3452,8 +3499,8 @@
     <row r="483" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C484" s="1"/>
+    <row r="485" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C485" s="1"/>
     </row>
     <row r="486" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C486" s="1"/>
@@ -3464,18 +3511,18 @@
     <row r="488" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C489" s="1"/>
+    <row r="490" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C490" s="1"/>
     </row>
     <row r="491" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C492" s="1"/>
+    <row r="493" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C493" s="1"/>
+      <c r="D493" s="1"/>
     </row>
     <row r="494" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C494" s="1"/>
-      <c r="D494" s="1"/>
     </row>
     <row r="495" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C495" s="1"/>
@@ -3537,25 +3584,25 @@
     <row r="514" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C515" s="1"/>
+    <row r="516" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C516" s="1"/>
     </row>
     <row r="517" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C517" s="1"/>
     </row>
     <row r="518" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C518" s="1"/>
+      <c r="D518" s="1"/>
     </row>
     <row r="519" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C519" s="1"/>
-      <c r="D519" s="1"/>
     </row>
     <row r="520" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C520" s="1"/>
+      <c r="D520" s="1"/>
     </row>
     <row r="521" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C521" s="1"/>
-      <c r="D521" s="1"/>
     </row>
     <row r="522" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C522" s="1"/>
@@ -3601,10 +3648,10 @@
     </row>
     <row r="536" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C536" s="1"/>
+      <c r="D536" s="1"/>
     </row>
     <row r="537" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C537" s="1"/>
-      <c r="D537" s="1"/>
     </row>
     <row r="538" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C538" s="1"/>
@@ -3635,16 +3682,16 @@
     </row>
     <row r="547" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C547" s="1"/>
+      <c r="D547" s="1"/>
     </row>
     <row r="548" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C548" s="1"/>
-      <c r="D548" s="1"/>
     </row>
     <row r="549" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C550" s="1"/>
+    <row r="551" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C551" s="1"/>
     </row>
     <row r="552" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C552" s="1"/>
@@ -3655,8 +3702,8 @@
     <row r="554" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C554" s="1"/>
     </row>
-    <row r="555" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C555" s="1"/>
+    <row r="556" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C556" s="1"/>
     </row>
     <row r="557" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C557" s="1"/>
@@ -3670,15 +3717,15 @@
     <row r="560" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C561" s="1"/>
+    <row r="562" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C562" s="1"/>
     </row>
     <row r="563" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C563" s="1"/>
+      <c r="D563" s="1"/>
     </row>
     <row r="564" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C564" s="1"/>
-      <c r="D564" s="1"/>
     </row>
     <row r="565" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C565" s="1"/>
@@ -3688,10 +3735,10 @@
     </row>
     <row r="567" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C567" s="1"/>
-    </row>
-    <row r="568" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C568" s="1"/>
-      <c r="D568" s="1"/>
+      <c r="D567" s="1"/>
+    </row>
+    <row r="569" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C569" s="1"/>
     </row>
     <row r="570" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C570" s="1"/>
@@ -3701,10 +3748,10 @@
     </row>
     <row r="572" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C572" s="1"/>
-    </row>
-    <row r="573" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C573" s="1"/>
-      <c r="D573" s="1"/>
+      <c r="D572" s="1"/>
+    </row>
+    <row r="574" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C574" s="1"/>
     </row>
     <row r="575" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C575" s="1"/>
@@ -3714,10 +3761,10 @@
     </row>
     <row r="577" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C577" s="1"/>
+      <c r="D577" s="1"/>
     </row>
     <row r="578" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C578" s="1"/>
-      <c r="D578" s="1"/>
     </row>
     <row r="579" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C579" s="1"/>
@@ -3730,10 +3777,10 @@
     </row>
     <row r="582" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C582" s="1"/>
+      <c r="D582" s="1"/>
     </row>
     <row r="583" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C583" s="1"/>
-      <c r="D583" s="1"/>
     </row>
     <row r="584" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C584" s="1"/>
@@ -3743,10 +3790,10 @@
     </row>
     <row r="586" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C586" s="1"/>
+      <c r="D586" s="1"/>
     </row>
     <row r="587" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C587" s="1"/>
-      <c r="D587" s="1"/>
     </row>
     <row r="588" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C588" s="1"/>
@@ -3777,16 +3824,17 @@
     </row>
     <row r="597" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C597" s="1"/>
-    </row>
-    <row r="598" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C598" s="1"/>
-      <c r="D598" s="1"/>
+      <c r="D597" s="1"/>
+    </row>
+    <row r="599" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C599" s="1"/>
     </row>
     <row r="600" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C600" s="1"/>
     </row>
     <row r="601" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C601" s="1"/>
+      <c r="D601" s="1"/>
     </row>
     <row r="602" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C602" s="1"/>
@@ -3794,40 +3842,40 @@
     </row>
     <row r="603" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C603" s="1"/>
-      <c r="D603" s="1"/>
     </row>
     <row r="604" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C604" s="1"/>
     </row>
     <row r="605" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C605" s="1"/>
+      <c r="D605" s="1"/>
     </row>
     <row r="606" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C606" s="1"/>
-      <c r="D606" s="1"/>
     </row>
     <row r="607" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C607" s="1"/>
     </row>
     <row r="608" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C608" s="1"/>
-    </row>
-    <row r="609" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C609" s="1"/>
-      <c r="D609" s="1"/>
-    </row>
-    <row r="612" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C612" s="1"/>
-    </row>
-    <row r="614" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C614" s="1"/>
-    </row>
-    <row r="616" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C616" s="1"/>
-      <c r="D616" s="1"/>
+      <c r="D608" s="1"/>
+    </row>
+    <row r="611" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C611" s="1"/>
+    </row>
+    <row r="613" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C613" s="1"/>
+    </row>
+    <row r="615" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C615" s="1"/>
+      <c r="D615" s="1"/>
+    </row>
+    <row r="617" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C617" s="1"/>
     </row>
     <row r="618" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C618" s="1"/>
+      <c r="D618" s="1"/>
     </row>
     <row r="619" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C619" s="1"/>
@@ -3835,7 +3883,6 @@
     </row>
     <row r="620" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C620" s="1"/>
-      <c r="D620" s="1"/>
     </row>
     <row r="621" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C621" s="1"/>
@@ -3848,10 +3895,10 @@
     </row>
     <row r="624" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C624" s="1"/>
+      <c r="D624" s="1"/>
     </row>
     <row r="625" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C625" s="1"/>
-      <c r="D625" s="1"/>
     </row>
     <row r="626" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C626" s="1"/>
@@ -3868,121 +3915,121 @@
     <row r="630" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C630" s="1"/>
     </row>
-    <row r="631" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C631" s="1"/>
+    <row r="632" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C632" s="1"/>
+      <c r="D632" s="1"/>
     </row>
     <row r="633" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C633" s="1"/>
-      <c r="D633" s="1"/>
     </row>
     <row r="634" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C634" s="1"/>
     </row>
-    <row r="635" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C635" s="1"/>
-    </row>
-    <row r="637" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C637" s="1"/>
+    <row r="636" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C636" s="1"/>
+    </row>
+    <row r="639" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C639" s="1"/>
     </row>
     <row r="640" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C640" s="1"/>
     </row>
-    <row r="641" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C641" s="1"/>
-    </row>
-    <row r="646" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C646" s="1"/>
-    </row>
-    <row r="648" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I648" s="2"/>
-    </row>
-    <row r="661" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C661" s="1"/>
-    </row>
-    <row r="664" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C664" s="1"/>
-    </row>
-    <row r="666" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C666" s="1"/>
+    <row r="645" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C645" s="1"/>
+    </row>
+    <row r="647" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I647" s="2"/>
+    </row>
+    <row r="660" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C660" s="1"/>
+    </row>
+    <row r="663" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C663" s="1"/>
+    </row>
+    <row r="665" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C665" s="1"/>
+    </row>
+    <row r="667" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C667" s="1"/>
     </row>
     <row r="668" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C668" s="1"/>
-    </row>
-    <row r="669" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C669" s="1"/>
-      <c r="D669" s="1"/>
-    </row>
-    <row r="671" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C671" s="1"/>
+      <c r="D668" s="1"/>
+    </row>
+    <row r="670" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C670" s="1"/>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C679" s="1"/>
     </row>
     <row r="680" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C680" s="1"/>
     </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C681" s="1"/>
-    </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C683" s="1"/>
-    </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C689" s="1"/>
-    </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C694" s="1"/>
-    </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C702" s="1"/>
-    </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C704" s="1"/>
-    </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C707" s="1"/>
-    </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C709" s="1"/>
-    </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C711" s="1"/>
-    </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C724" s="1"/>
-    </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C730" s="1"/>
-    </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C742" s="1"/>
-    </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C746" s="1"/>
-    </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C757" s="1"/>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C682" s="1"/>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C688" s="1"/>
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C693" s="1"/>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C701" s="1"/>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C703" s="1"/>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C706" s="1"/>
+    </row>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C708" s="1"/>
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C710" s="1"/>
+    </row>
+    <row r="723" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C723" s="1"/>
+    </row>
+    <row r="729" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C729" s="1"/>
+    </row>
+    <row r="741" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C741" s="1"/>
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C745" s="1"/>
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C756" s="1"/>
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C759" s="1"/>
     </row>
     <row r="760" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C760" s="1"/>
     </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C761" s="1"/>
-    </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C772" s="1"/>
-    </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C776" s="1"/>
-    </row>
-    <row r="790" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C790" s="1"/>
-    </row>
-    <row r="793" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C793" s="1"/>
-    </row>
-    <row r="795" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D795" s="1"/>
-    </row>
-    <row r="801" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C801" s="1"/>
+    <row r="771" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C771" s="1"/>
+    </row>
+    <row r="775" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C775" s="1"/>
+    </row>
+    <row r="789" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C789" s="1"/>
+    </row>
+    <row r="792" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C792" s="1"/>
+    </row>
+    <row r="794" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D794" s="1"/>
+    </row>
+    <row r="800" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C800" s="1"/>
+    </row>
+    <row r="803" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C803" s="1"/>
     </row>
     <row r="804" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C804" s="1"/>
@@ -3990,55 +4037,55 @@
     <row r="805" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C805" s="1"/>
     </row>
-    <row r="806" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C806" s="1"/>
-    </row>
-    <row r="812" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C812" s="1"/>
-      <c r="D812" s="1"/>
-    </row>
-    <row r="814" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C814" s="1"/>
-    </row>
-    <row r="818" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C818" s="1"/>
-      <c r="D818" s="1"/>
-    </row>
-    <row r="823" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C823" s="1"/>
-      <c r="D823" s="1"/>
-    </row>
-    <row r="826" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C826" s="1"/>
-    </row>
-    <row r="829" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C829" s="1"/>
-    </row>
-    <row r="832" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C832" s="1"/>
-    </row>
-    <row r="839" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C839" s="1"/>
-      <c r="D839" s="1"/>
+    <row r="811" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C811" s="1"/>
+      <c r="D811" s="1"/>
+    </row>
+    <row r="813" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C813" s="1"/>
+    </row>
+    <row r="817" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C817" s="1"/>
+      <c r="D817" s="1"/>
+    </row>
+    <row r="822" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C822" s="1"/>
+      <c r="D822" s="1"/>
+    </row>
+    <row r="825" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C825" s="1"/>
+    </row>
+    <row r="828" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C828" s="1"/>
+    </row>
+    <row r="831" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C831" s="1"/>
+    </row>
+    <row r="838" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C838" s="1"/>
+      <c r="D838" s="1"/>
+    </row>
+    <row r="841" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C841" s="1"/>
     </row>
     <row r="842" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C842" s="1"/>
-    </row>
-    <row r="843" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D843" s="1"/>
-    </row>
-    <row r="845" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C845" s="1"/>
-    </row>
-    <row r="848" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C848" s="1"/>
-      <c r="D848" s="1"/>
-    </row>
-    <row r="852" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C852" s="1"/>
-    </row>
-    <row r="859" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C859" s="1"/>
+      <c r="D842" s="1"/>
+    </row>
+    <row r="844" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C844" s="1"/>
+    </row>
+    <row r="847" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C847" s="1"/>
+      <c r="D847" s="1"/>
+    </row>
+    <row r="851" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C851" s="1"/>
+    </row>
+    <row r="858" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C858" s="1"/>
+    </row>
+    <row r="863" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C863" s="1"/>
     </row>
     <row r="864" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C864" s="1"/>
@@ -4049,8 +4096,8 @@
     <row r="866" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C866" s="1"/>
     </row>
-    <row r="867" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C867" s="1"/>
+    <row r="868" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C868" s="1"/>
     </row>
     <row r="869" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C869" s="1"/>
@@ -4058,214 +4105,214 @@
     <row r="870" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C870" s="1"/>
     </row>
-    <row r="871" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C871" s="1"/>
-    </row>
-    <row r="873" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I873" s="2"/>
-    </row>
-    <row r="876" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C876" s="1"/>
+    <row r="872" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I872" s="2"/>
+    </row>
+    <row r="875" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C875" s="1"/>
+    </row>
+    <row r="878" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C878" s="1"/>
     </row>
     <row r="879" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C879" s="1"/>
     </row>
     <row r="880" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C880" s="1"/>
-    </row>
-    <row r="881" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D881" s="1"/>
+      <c r="D880" s="1"/>
+    </row>
+    <row r="888" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C888" s="1"/>
     </row>
     <row r="889" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C889" s="1"/>
     </row>
-    <row r="890" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C890" s="1"/>
-    </row>
-    <row r="894" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D894" s="1"/>
-    </row>
-    <row r="900" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C900" s="1"/>
-      <c r="D900" s="1"/>
-    </row>
-    <row r="915" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C915" s="1"/>
-    </row>
-    <row r="929" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C929" s="1"/>
-      <c r="D929" s="1"/>
-    </row>
-    <row r="933" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C933" s="1"/>
-    </row>
-    <row r="938" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="893" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D893" s="1"/>
+    </row>
+    <row r="899" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C899" s="1"/>
+      <c r="D899" s="1"/>
+    </row>
+    <row r="914" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C914" s="1"/>
+    </row>
+    <row r="928" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C928" s="1"/>
+      <c r="D928" s="1"/>
+    </row>
+    <row r="932" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C932" s="1"/>
+    </row>
+    <row r="937" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C937" s="1"/>
+    </row>
+    <row r="938" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C938" s="1"/>
     </row>
-    <row r="939" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C939" s="1"/>
+    <row r="947" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C947" s="1"/>
     </row>
     <row r="948" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C948" s="1"/>
-    </row>
-    <row r="949" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C949" s="1"/>
-      <c r="D949" s="1"/>
-    </row>
-    <row r="962" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C962" s="1"/>
-    </row>
-    <row r="967" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C967" s="1"/>
-    </row>
-    <row r="969" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C969" s="1"/>
-    </row>
-    <row r="971" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C971" s="1"/>
-    </row>
-    <row r="973" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C973" s="1"/>
-    </row>
-    <row r="976" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C976" s="1"/>
-    </row>
-    <row r="981" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C981" s="1"/>
-    </row>
-    <row r="984" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C984" s="1"/>
+      <c r="D948" s="1"/>
+    </row>
+    <row r="961" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C961" s="1"/>
+    </row>
+    <row r="966" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C966" s="1"/>
+    </row>
+    <row r="968" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C968" s="1"/>
+    </row>
+    <row r="970" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C970" s="1"/>
+    </row>
+    <row r="972" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C972" s="1"/>
+    </row>
+    <row r="975" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C975" s="1"/>
+    </row>
+    <row r="980" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C980" s="1"/>
+    </row>
+    <row r="983" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C983" s="1"/>
+    </row>
+    <row r="993" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C993" s="1"/>
     </row>
     <row r="994" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C994" s="1"/>
     </row>
-    <row r="995" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C995" s="1"/>
-    </row>
-    <row r="998" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C998" s="1"/>
-    </row>
-    <row r="1001" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1001" s="1"/>
-    </row>
-    <row r="1007" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1007" s="1"/>
-    </row>
-    <row r="1011" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1011" s="3"/>
-    </row>
-    <row r="1013" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1013" s="1"/>
-    </row>
-    <row r="1016" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1016" s="1"/>
-    </row>
-    <row r="1029" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1029" s="1"/>
-    </row>
-    <row r="1041" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1041" s="1"/>
-    </row>
-    <row r="1044" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1044" s="1"/>
-    </row>
-    <row r="1046" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1046" s="1"/>
-    </row>
-    <row r="1050" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1050" s="1"/>
-      <c r="D1050" s="1"/>
-    </row>
-    <row r="1052" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1052" s="1"/>
+    <row r="997" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C997" s="1"/>
+    </row>
+    <row r="1000" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1000" s="1"/>
+    </row>
+    <row r="1006" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1006" s="1"/>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1010" s="3"/>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1012" s="1"/>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1015" s="1"/>
+    </row>
+    <row r="1028" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1028" s="1"/>
+    </row>
+    <row r="1040" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1040" s="1"/>
+    </row>
+    <row r="1043" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1043" s="1"/>
+    </row>
+    <row r="1045" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1045" s="1"/>
+    </row>
+    <row r="1049" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1049" s="1"/>
+      <c r="D1049" s="1"/>
+    </row>
+    <row r="1051" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1051" s="1"/>
+    </row>
+    <row r="1054" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1054" s="1"/>
+      <c r="D1054" s="1"/>
     </row>
     <row r="1055" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C1055" s="1"/>
-      <c r="D1055" s="1"/>
-    </row>
-    <row r="1056" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1056" s="1"/>
-    </row>
-    <row r="1061" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1061" s="1"/>
-    </row>
-    <row r="1067" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1067" s="1"/>
-    </row>
-    <row r="1072" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1072" s="1"/>
-    </row>
-    <row r="1083" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1083" s="1"/>
-    </row>
-    <row r="1090" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1090" s="1"/>
+    </row>
+    <row r="1060" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1060" s="1"/>
+    </row>
+    <row r="1066" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1066" s="1"/>
+    </row>
+    <row r="1071" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1071" s="1"/>
+    </row>
+    <row r="1082" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1082" s="1"/>
+    </row>
+    <row r="1089" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1089" s="1"/>
+    </row>
+    <row r="1092" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1092" s="1"/>
     </row>
     <row r="1093" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C1093" s="1"/>
+      <c r="D1093" s="1"/>
     </row>
     <row r="1094" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C1094" s="1"/>
       <c r="D1094" s="1"/>
     </row>
-    <row r="1095" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1095" s="1"/>
-      <c r="D1095" s="1"/>
-    </row>
-    <row r="1098" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1098" s="1"/>
-    </row>
-    <row r="1100" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1100" s="1"/>
+    <row r="1097" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1097" s="1"/>
+    </row>
+    <row r="1099" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1099" s="1"/>
+    </row>
+    <row r="1109" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1109" s="1"/>
     </row>
     <row r="1110" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C1110" s="1"/>
     </row>
-    <row r="1111" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1111" s="1"/>
-    </row>
-    <row r="1115" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1115" s="1"/>
-    </row>
-    <row r="1117" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1117" s="1"/>
-    </row>
-    <row r="1122" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1122" s="1"/>
-    </row>
-    <row r="1131" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1131" s="1"/>
-    </row>
-    <row r="1134" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1134" s="1"/>
-      <c r="D1134" s="1"/>
-    </row>
-    <row r="1136" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1136" s="1"/>
+    <row r="1114" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1114" s="1"/>
+    </row>
+    <row r="1116" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1116" s="1"/>
+    </row>
+    <row r="1121" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1121" s="1"/>
+    </row>
+    <row r="1130" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1130" s="1"/>
+    </row>
+    <row r="1133" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1133" s="1"/>
+      <c r="D1133" s="1"/>
+    </row>
+    <row r="1135" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1135" s="1"/>
+    </row>
+    <row r="1138" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1138" s="1"/>
     </row>
     <row r="1139" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C1139" s="1"/>
-    </row>
-    <row r="1140" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1140" s="1"/>
-      <c r="D1140" s="1"/>
-    </row>
-    <row r="1149" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1149" s="1"/>
-    </row>
-    <row r="1167" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1167" s="1"/>
-      <c r="D1167" s="1"/>
-    </row>
-    <row r="1179" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1179" s="1"/>
-    </row>
-    <row r="1183" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1183" s="1"/>
-      <c r="D1183" s="1"/>
-    </row>
-    <row r="1187" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1187" s="1"/>
+      <c r="D1139" s="1"/>
+    </row>
+    <row r="1148" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1148" s="1"/>
+    </row>
+    <row r="1166" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1166" s="1"/>
+      <c r="D1166" s="1"/>
+    </row>
+    <row r="1178" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1178" s="1"/>
+    </row>
+    <row r="1182" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1182" s="1"/>
+      <c r="D1182" s="1"/>
+    </row>
+    <row r="1186" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1186" s="1"/>
+    </row>
+    <row r="1211" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1211" s="1"/>
     </row>
     <row r="1212" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C1212" s="1"/>
@@ -4273,11 +4320,8 @@
     <row r="1213" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C1213" s="1"/>
     </row>
-    <row r="1214" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1214" s="1"/>
-    </row>
-    <row r="1223" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1223" s="1"/>
+    <row r="1222" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1222" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
